--- a/Mussel_Cancer/Rcalc_for_cancer/Data/mussel_individual.xlsx
+++ b/Mussel_Cancer/Rcalc_for_cancer/Data/mussel_individual.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2845" uniqueCount="735">
   <si>
     <t>Site</t>
   </si>
@@ -1832,6 +1832,396 @@
   </si>
   <si>
     <t>нюк3-32</t>
+  </si>
+  <si>
+    <t>mchk</t>
+  </si>
+  <si>
+    <t>MChk1</t>
+  </si>
+  <si>
+    <t>MChk2</t>
+  </si>
+  <si>
+    <t>MChk3</t>
+  </si>
+  <si>
+    <t>MChk4</t>
+  </si>
+  <si>
+    <t>MChk5</t>
+  </si>
+  <si>
+    <t>MChk6</t>
+  </si>
+  <si>
+    <t>MChk7</t>
+  </si>
+  <si>
+    <t>MChk8</t>
+  </si>
+  <si>
+    <t>MChk9</t>
+  </si>
+  <si>
+    <t>MChk10</t>
+  </si>
+  <si>
+    <t>MChk11</t>
+  </si>
+  <si>
+    <t>MChk12</t>
+  </si>
+  <si>
+    <t>MChk13</t>
+  </si>
+  <si>
+    <t>MChk14</t>
+  </si>
+  <si>
+    <t>MChk15</t>
+  </si>
+  <si>
+    <t>MChk16</t>
+  </si>
+  <si>
+    <t>MChk17</t>
+  </si>
+  <si>
+    <t>MChk18</t>
+  </si>
+  <si>
+    <t>MChk19</t>
+  </si>
+  <si>
+    <t>MChk20</t>
+  </si>
+  <si>
+    <t>MChk21</t>
+  </si>
+  <si>
+    <t>MChk22</t>
+  </si>
+  <si>
+    <t>MChk23</t>
+  </si>
+  <si>
+    <t>MChk24</t>
+  </si>
+  <si>
+    <t>MChk25</t>
+  </si>
+  <si>
+    <t>MChk26</t>
+  </si>
+  <si>
+    <t>MChk27</t>
+  </si>
+  <si>
+    <t>MChk28</t>
+  </si>
+  <si>
+    <t>MChk29</t>
+  </si>
+  <si>
+    <t>MChk30</t>
+  </si>
+  <si>
+    <t>MChk31</t>
+  </si>
+  <si>
+    <t>MChk32</t>
+  </si>
+  <si>
+    <t>MChk33</t>
+  </si>
+  <si>
+    <t>MChk34</t>
+  </si>
+  <si>
+    <t>MChk35</t>
+  </si>
+  <si>
+    <t>MChk36</t>
+  </si>
+  <si>
+    <t>MChk37</t>
+  </si>
+  <si>
+    <t>MChk38</t>
+  </si>
+  <si>
+    <t>MChk39</t>
+  </si>
+  <si>
+    <t>MChk40</t>
+  </si>
+  <si>
+    <t>MChk41</t>
+  </si>
+  <si>
+    <t>MChk42</t>
+  </si>
+  <si>
+    <t>MChk43</t>
+  </si>
+  <si>
+    <t>MChk44</t>
+  </si>
+  <si>
+    <t>MChk45</t>
+  </si>
+  <si>
+    <t>MChk46</t>
+  </si>
+  <si>
+    <t>MChk47</t>
+  </si>
+  <si>
+    <t>MChk48</t>
+  </si>
+  <si>
+    <t>MChk49</t>
+  </si>
+  <si>
+    <t>MChk50</t>
+  </si>
+  <si>
+    <t>MChk51</t>
+  </si>
+  <si>
+    <t>MChk52</t>
+  </si>
+  <si>
+    <t>MChk53</t>
+  </si>
+  <si>
+    <t>MChk54</t>
+  </si>
+  <si>
+    <t>MChk55</t>
+  </si>
+  <si>
+    <t>MChk56</t>
+  </si>
+  <si>
+    <t>MChk57</t>
+  </si>
+  <si>
+    <t>MChk58</t>
+  </si>
+  <si>
+    <t>MChk59</t>
+  </si>
+  <si>
+    <t>MChk60</t>
+  </si>
+  <si>
+    <t>MChk61</t>
+  </si>
+  <si>
+    <t>MChk62</t>
+  </si>
+  <si>
+    <t>MChk63</t>
+  </si>
+  <si>
+    <t>MChk64</t>
+  </si>
+  <si>
+    <t>mam</t>
+  </si>
+  <si>
+    <t>мам1</t>
+  </si>
+  <si>
+    <t>мам2</t>
+  </si>
+  <si>
+    <t>мам3</t>
+  </si>
+  <si>
+    <t>мам4</t>
+  </si>
+  <si>
+    <t>мам5</t>
+  </si>
+  <si>
+    <t>мам6</t>
+  </si>
+  <si>
+    <t>мам7</t>
+  </si>
+  <si>
+    <t>мам8</t>
+  </si>
+  <si>
+    <t>мам9</t>
+  </si>
+  <si>
+    <t>мам10</t>
+  </si>
+  <si>
+    <t>мам11</t>
+  </si>
+  <si>
+    <t>мам12</t>
+  </si>
+  <si>
+    <t>мам13</t>
+  </si>
+  <si>
+    <t>мам14</t>
+  </si>
+  <si>
+    <t>мам15</t>
+  </si>
+  <si>
+    <t>мам16</t>
+  </si>
+  <si>
+    <t>мам17</t>
+  </si>
+  <si>
+    <t>мам18</t>
+  </si>
+  <si>
+    <t>мам19</t>
+  </si>
+  <si>
+    <t>мам20</t>
+  </si>
+  <si>
+    <t>мам21</t>
+  </si>
+  <si>
+    <t>мам22</t>
+  </si>
+  <si>
+    <t>мам23</t>
+  </si>
+  <si>
+    <t>мам24</t>
+  </si>
+  <si>
+    <t>мам25</t>
+  </si>
+  <si>
+    <t>мам26</t>
+  </si>
+  <si>
+    <t>мам27</t>
+  </si>
+  <si>
+    <t>мам28</t>
+  </si>
+  <si>
+    <t>мам29</t>
+  </si>
+  <si>
+    <t>мам30</t>
+  </si>
+  <si>
+    <t>мам31</t>
+  </si>
+  <si>
+    <t>мам32</t>
+  </si>
+  <si>
+    <t>мам33</t>
+  </si>
+  <si>
+    <t>мам34</t>
+  </si>
+  <si>
+    <t>мам35</t>
+  </si>
+  <si>
+    <t>мам36</t>
+  </si>
+  <si>
+    <t>мам37</t>
+  </si>
+  <si>
+    <t>мам38</t>
+  </si>
+  <si>
+    <t>мам39</t>
+  </si>
+  <si>
+    <t>мам40</t>
+  </si>
+  <si>
+    <t>мам41</t>
+  </si>
+  <si>
+    <t>мам42</t>
+  </si>
+  <si>
+    <t>мам43</t>
+  </si>
+  <si>
+    <t>мам44</t>
+  </si>
+  <si>
+    <t>мам45</t>
+  </si>
+  <si>
+    <t>мам46</t>
+  </si>
+  <si>
+    <t>мам47</t>
+  </si>
+  <si>
+    <t>мам48</t>
+  </si>
+  <si>
+    <t>мам49</t>
+  </si>
+  <si>
+    <t>мам50</t>
+  </si>
+  <si>
+    <t>мам51</t>
+  </si>
+  <si>
+    <t>мам52</t>
+  </si>
+  <si>
+    <t>мам53</t>
+  </si>
+  <si>
+    <t>мам54</t>
+  </si>
+  <si>
+    <t>мам55</t>
+  </si>
+  <si>
+    <t>мам56</t>
+  </si>
+  <si>
+    <t>мам57</t>
+  </si>
+  <si>
+    <t>мам58</t>
+  </si>
+  <si>
+    <t>мам59</t>
+  </si>
+  <si>
+    <t>мам60</t>
+  </si>
+  <si>
+    <t>мам61</t>
+  </si>
+  <si>
+    <t>мам62</t>
+  </si>
+  <si>
+    <t>мам63</t>
+  </si>
+  <si>
+    <t>мам64</t>
   </si>
 </sst>
 </file>
@@ -1839,12 +2229,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1877,9 +2267,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1891,45 +2281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1943,9 +2295,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1954,6 +2305,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1975,18 +2349,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2006,15 +2380,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2029,7 +2426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,37 +2450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,19 +2474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2119,7 +2504,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2131,7 +2540,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,73 +2606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,30 +2617,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2278,6 +2651,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2320,102 +2708,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2424,53 +2824,50 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2478,6 +2875,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2797,10 +3195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J577"/>
+  <dimension ref="A1:J705"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="D640" sqref="D640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8600,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>214</v>
       </c>
@@ -8629,8 +9027,11 @@
       <c r="I194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:9">
+      <c r="J194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>214</v>
       </c>
@@ -8659,8 +9060,11 @@
       <c r="I195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>214</v>
       </c>
@@ -8689,8 +9093,11 @@
       <c r="I196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:9">
+      <c r="J196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>214</v>
       </c>
@@ -8719,8 +9126,11 @@
       <c r="I197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:9">
+      <c r="J197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -8749,8 +9159,11 @@
       <c r="I198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:9">
+      <c r="J198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>214</v>
       </c>
@@ -8779,8 +9192,11 @@
       <c r="I199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:9">
+      <c r="J199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -8809,8 +9225,11 @@
       <c r="I200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>214</v>
       </c>
@@ -8839,8 +9258,11 @@
       <c r="I201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:9">
+      <c r="J201">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -8869,8 +9291,11 @@
       <c r="I202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="J202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -8899,8 +9324,11 @@
       <c r="I203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="J203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>214</v>
       </c>
@@ -8929,8 +9357,11 @@
       <c r="I204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="J204">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>214</v>
       </c>
@@ -8959,8 +9390,11 @@
       <c r="I205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="J205">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>214</v>
       </c>
@@ -8989,8 +9423,11 @@
       <c r="I206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="J206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>214</v>
       </c>
@@ -9019,8 +9456,11 @@
       <c r="I207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="J207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -9049,8 +9489,11 @@
       <c r="I208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="J208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -9079,8 +9522,11 @@
       <c r="I209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="J209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>214</v>
       </c>
@@ -9109,8 +9555,11 @@
       <c r="I210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="J210">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -9139,8 +9588,11 @@
       <c r="I211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="J211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -9169,8 +9621,11 @@
       <c r="I212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="J212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>214</v>
       </c>
@@ -9199,8 +9654,11 @@
       <c r="I213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="J213">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -9229,8 +9687,11 @@
       <c r="I214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="J214">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -9259,8 +9720,11 @@
       <c r="I215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="J215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -9289,8 +9753,11 @@
       <c r="I216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -9319,8 +9786,11 @@
       <c r="I217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="J217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>214</v>
       </c>
@@ -9349,8 +9819,11 @@
       <c r="I218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="J218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>214</v>
       </c>
@@ -9379,8 +9852,11 @@
       <c r="I219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="J219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>214</v>
       </c>
@@ -9409,8 +9885,11 @@
       <c r="I220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="J220">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>214</v>
       </c>
@@ -9439,8 +9918,11 @@
       <c r="I221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="J221">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>214</v>
       </c>
@@ -9469,8 +9951,11 @@
       <c r="I222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="J222">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>214</v>
       </c>
@@ -9499,8 +9984,11 @@
       <c r="I223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="J223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>214</v>
       </c>
@@ -9529,8 +10017,11 @@
       <c r="I224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="J224">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>214</v>
       </c>
@@ -9559,8 +10050,11 @@
       <c r="I225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="J225">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>214</v>
       </c>
@@ -9589,8 +10083,11 @@
       <c r="I226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="J226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>214</v>
       </c>
@@ -9619,8 +10116,11 @@
       <c r="I227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="J227">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>214</v>
       </c>
@@ -9649,8 +10149,11 @@
       <c r="I228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="J228">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>214</v>
       </c>
@@ -9679,8 +10182,11 @@
       <c r="I229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="J229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>214</v>
       </c>
@@ -9709,8 +10215,11 @@
       <c r="I230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="J230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>214</v>
       </c>
@@ -9739,8 +10248,11 @@
       <c r="I231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="J231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>214</v>
       </c>
@@ -9769,8 +10281,11 @@
       <c r="I232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="J232">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>214</v>
       </c>
@@ -9799,8 +10314,11 @@
       <c r="I233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="J233">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>214</v>
       </c>
@@ -9829,8 +10347,11 @@
       <c r="I234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="J234">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>214</v>
       </c>
@@ -9859,8 +10380,11 @@
       <c r="I235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="J235">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>214</v>
       </c>
@@ -9889,8 +10413,11 @@
       <c r="I236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="J236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>214</v>
       </c>
@@ -9919,8 +10446,11 @@
       <c r="I237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="J237">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>214</v>
       </c>
@@ -9949,8 +10479,11 @@
       <c r="I238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="J238">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>214</v>
       </c>
@@ -9979,8 +10512,11 @@
       <c r="I239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="J239">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>214</v>
       </c>
@@ -10009,8 +10545,11 @@
       <c r="I240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="J240">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>214</v>
       </c>
@@ -10039,8 +10578,11 @@
       <c r="I241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="J241">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>214</v>
       </c>
@@ -10069,8 +10611,11 @@
       <c r="I242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="J242">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>214</v>
       </c>
@@ -10099,8 +10644,11 @@
       <c r="I243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="J243">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>214</v>
       </c>
@@ -10129,8 +10677,11 @@
       <c r="I244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="J244">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>214</v>
       </c>
@@ -10159,8 +10710,11 @@
       <c r="I245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="J245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>214</v>
       </c>
@@ -10189,8 +10743,11 @@
       <c r="I246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="J246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>214</v>
       </c>
@@ -10219,8 +10776,11 @@
       <c r="I247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="J247">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>214</v>
       </c>
@@ -10249,8 +10809,11 @@
       <c r="I248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="J248">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>214</v>
       </c>
@@ -10279,8 +10842,11 @@
       <c r="I249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="J249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>214</v>
       </c>
@@ -10309,8 +10875,11 @@
       <c r="I250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="J250">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>214</v>
       </c>
@@ -10339,8 +10908,11 @@
       <c r="I251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="J251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>214</v>
       </c>
@@ -10369,8 +10941,11 @@
       <c r="I252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="J252">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>214</v>
       </c>
@@ -10399,8 +10974,11 @@
       <c r="I253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="J253">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>214</v>
       </c>
@@ -10429,8 +11007,11 @@
       <c r="I254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="J254">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>214</v>
       </c>
@@ -10459,8 +11040,11 @@
       <c r="I255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="J255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>214</v>
       </c>
@@ -10489,8 +11073,11 @@
       <c r="I256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="J256">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>214</v>
       </c>
@@ -10519,6 +11106,9 @@
       <c r="I257">
         <v>0</v>
       </c>
+      <c r="J257">
+        <v>6</v>
+      </c>
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
@@ -17813,7 +18403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:9">
       <c r="A482" t="s">
         <v>508</v>
       </c>
@@ -17842,11 +18432,8 @@
       <c r="I482">
         <v>0</v>
       </c>
-      <c r="J482">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="483" spans="1:10">
+    </row>
+    <row r="483" spans="1:9">
       <c r="A483" t="s">
         <v>508</v>
       </c>
@@ -17875,11 +18462,8 @@
       <c r="I483">
         <v>0</v>
       </c>
-      <c r="J483">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="484" spans="1:10">
+    </row>
+    <row r="484" spans="1:9">
       <c r="A484" t="s">
         <v>508</v>
       </c>
@@ -17908,11 +18492,8 @@
       <c r="I484">
         <v>0</v>
       </c>
-      <c r="J484">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="485" spans="1:10">
+    </row>
+    <row r="485" spans="1:9">
       <c r="A485" t="s">
         <v>508</v>
       </c>
@@ -17941,11 +18522,8 @@
       <c r="I485">
         <v>0</v>
       </c>
-      <c r="J485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:10">
+    </row>
+    <row r="486" spans="1:9">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -17974,11 +18552,8 @@
       <c r="I486">
         <v>0</v>
       </c>
-      <c r="J486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:10">
+    </row>
+    <row r="487" spans="1:9">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -18007,11 +18582,8 @@
       <c r="I487">
         <v>0</v>
       </c>
-      <c r="J487">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="488" spans="1:10">
+    </row>
+    <row r="488" spans="1:9">
       <c r="A488" t="s">
         <v>508</v>
       </c>
@@ -18040,11 +18612,8 @@
       <c r="I488">
         <v>0</v>
       </c>
-      <c r="J488">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="489" spans="1:10">
+    </row>
+    <row r="489" spans="1:9">
       <c r="A489" t="s">
         <v>508</v>
       </c>
@@ -18073,11 +18642,8 @@
       <c r="I489">
         <v>0</v>
       </c>
-      <c r="J489">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="490" spans="1:10">
+    </row>
+    <row r="490" spans="1:9">
       <c r="A490" t="s">
         <v>508</v>
       </c>
@@ -18106,11 +18672,8 @@
       <c r="I490">
         <v>0</v>
       </c>
-      <c r="J490">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="491" spans="1:10">
+    </row>
+    <row r="491" spans="1:9">
       <c r="A491" t="s">
         <v>508</v>
       </c>
@@ -18139,11 +18702,8 @@
       <c r="I491">
         <v>0</v>
       </c>
-      <c r="J491">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="492" spans="1:10">
+    </row>
+    <row r="492" spans="1:9">
       <c r="A492" t="s">
         <v>508</v>
       </c>
@@ -18172,11 +18732,8 @@
       <c r="I492">
         <v>0</v>
       </c>
-      <c r="J492">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10">
+    </row>
+    <row r="493" spans="1:9">
       <c r="A493" t="s">
         <v>508</v>
       </c>
@@ -18205,11 +18762,8 @@
       <c r="I493">
         <v>0</v>
       </c>
-      <c r="J493">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="494" spans="1:10">
+    </row>
+    <row r="494" spans="1:9">
       <c r="A494" t="s">
         <v>508</v>
       </c>
@@ -18238,11 +18792,8 @@
       <c r="I494">
         <v>0</v>
       </c>
-      <c r="J494">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10">
+    </row>
+    <row r="495" spans="1:9">
       <c r="A495" t="s">
         <v>508</v>
       </c>
@@ -18271,11 +18822,8 @@
       <c r="I495">
         <v>0</v>
       </c>
-      <c r="J495">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10">
+    </row>
+    <row r="496" spans="1:9">
       <c r="A496" t="s">
         <v>508</v>
       </c>
@@ -18304,11 +18852,8 @@
       <c r="I496">
         <v>0</v>
       </c>
-      <c r="J496">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="497" spans="1:10">
+    </row>
+    <row r="497" spans="1:9">
       <c r="A497" t="s">
         <v>508</v>
       </c>
@@ -18337,11 +18882,8 @@
       <c r="I497">
         <v>0</v>
       </c>
-      <c r="J497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:10">
+    </row>
+    <row r="498" spans="1:9">
       <c r="A498" t="s">
         <v>508</v>
       </c>
@@ -18370,11 +18912,8 @@
       <c r="I498">
         <v>0</v>
       </c>
-      <c r="J498">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="499" spans="1:10">
+    </row>
+    <row r="499" spans="1:9">
       <c r="A499" t="s">
         <v>508</v>
       </c>
@@ -18403,11 +18942,8 @@
       <c r="I499">
         <v>0</v>
       </c>
-      <c r="J499">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="500" spans="1:10">
+    </row>
+    <row r="500" spans="1:9">
       <c r="A500" t="s">
         <v>508</v>
       </c>
@@ -18436,11 +18972,8 @@
       <c r="I500">
         <v>0</v>
       </c>
-      <c r="J500">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="501" spans="1:10">
+    </row>
+    <row r="501" spans="1:9">
       <c r="A501" t="s">
         <v>508</v>
       </c>
@@ -18469,11 +19002,8 @@
       <c r="I501">
         <v>0</v>
       </c>
-      <c r="J501">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="502" spans="1:10">
+    </row>
+    <row r="502" spans="1:9">
       <c r="A502" t="s">
         <v>508</v>
       </c>
@@ -18502,11 +19032,8 @@
       <c r="I502">
         <v>0</v>
       </c>
-      <c r="J502">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="503" spans="1:10">
+    </row>
+    <row r="503" spans="1:9">
       <c r="A503" t="s">
         <v>508</v>
       </c>
@@ -18535,11 +19062,8 @@
       <c r="I503">
         <v>0</v>
       </c>
-      <c r="J503">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504" spans="1:10">
+    </row>
+    <row r="504" spans="1:9">
       <c r="A504" t="s">
         <v>508</v>
       </c>
@@ -18568,11 +19092,8 @@
       <c r="I504">
         <v>0</v>
       </c>
-      <c r="J504">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="505" spans="1:10">
+    </row>
+    <row r="505" spans="1:9">
       <c r="A505" t="s">
         <v>508</v>
       </c>
@@ -18601,11 +19122,8 @@
       <c r="I505">
         <v>0</v>
       </c>
-      <c r="J505">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="506" spans="1:10">
+    </row>
+    <row r="506" spans="1:9">
       <c r="A506" t="s">
         <v>508</v>
       </c>
@@ -18634,11 +19152,8 @@
       <c r="I506">
         <v>0</v>
       </c>
-      <c r="J506">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="507" spans="1:10">
+    </row>
+    <row r="507" spans="1:9">
       <c r="A507" t="s">
         <v>508</v>
       </c>
@@ -18667,11 +19182,8 @@
       <c r="I507">
         <v>0</v>
       </c>
-      <c r="J507">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="508" spans="1:10">
+    </row>
+    <row r="508" spans="1:9">
       <c r="A508" t="s">
         <v>508</v>
       </c>
@@ -18700,11 +19212,8 @@
       <c r="I508">
         <v>0</v>
       </c>
-      <c r="J508">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="509" spans="1:10">
+    </row>
+    <row r="509" spans="1:9">
       <c r="A509" t="s">
         <v>508</v>
       </c>
@@ -18733,11 +19242,8 @@
       <c r="I509">
         <v>0</v>
       </c>
-      <c r="J509">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="510" spans="1:10">
+    </row>
+    <row r="510" spans="1:9">
       <c r="A510" t="s">
         <v>508</v>
       </c>
@@ -18766,11 +19272,8 @@
       <c r="I510">
         <v>0</v>
       </c>
-      <c r="J510">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="511" spans="1:10">
+    </row>
+    <row r="511" spans="1:9">
       <c r="A511" t="s">
         <v>508</v>
       </c>
@@ -18799,11 +19302,8 @@
       <c r="I511">
         <v>0</v>
       </c>
-      <c r="J511">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="512" spans="1:10">
+    </row>
+    <row r="512" spans="1:9">
       <c r="A512" t="s">
         <v>508</v>
       </c>
@@ -18832,11 +19332,8 @@
       <c r="I512">
         <v>0</v>
       </c>
-      <c r="J512">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="513" spans="1:10">
+    </row>
+    <row r="513" spans="1:9">
       <c r="A513" t="s">
         <v>508</v>
       </c>
@@ -18865,11 +19362,8 @@
       <c r="I513">
         <v>0</v>
       </c>
-      <c r="J513">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="514" spans="1:10">
+    </row>
+    <row r="514" spans="1:9">
       <c r="A514" t="s">
         <v>508</v>
       </c>
@@ -18898,11 +19392,8 @@
       <c r="I514">
         <v>0</v>
       </c>
-      <c r="J514">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="515" spans="1:10">
+    </row>
+    <row r="515" spans="1:9">
       <c r="A515" t="s">
         <v>508</v>
       </c>
@@ -18931,11 +19422,8 @@
       <c r="I515">
         <v>0</v>
       </c>
-      <c r="J515">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="516" spans="1:10">
+    </row>
+    <row r="516" spans="1:9">
       <c r="A516" t="s">
         <v>508</v>
       </c>
@@ -18964,11 +19452,8 @@
       <c r="I516">
         <v>0</v>
       </c>
-      <c r="J516">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="517" spans="1:10">
+    </row>
+    <row r="517" spans="1:9">
       <c r="A517" t="s">
         <v>508</v>
       </c>
@@ -18997,11 +19482,8 @@
       <c r="I517">
         <v>0</v>
       </c>
-      <c r="J517">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="518" spans="1:10">
+    </row>
+    <row r="518" spans="1:9">
       <c r="A518" t="s">
         <v>508</v>
       </c>
@@ -19030,11 +19512,8 @@
       <c r="I518">
         <v>0</v>
       </c>
-      <c r="J518">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="519" spans="1:10">
+    </row>
+    <row r="519" spans="1:9">
       <c r="A519" t="s">
         <v>508</v>
       </c>
@@ -19063,11 +19542,8 @@
       <c r="I519">
         <v>0</v>
       </c>
-      <c r="J519">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="520" spans="1:10">
+    </row>
+    <row r="520" spans="1:9">
       <c r="A520" t="s">
         <v>508</v>
       </c>
@@ -19096,11 +19572,8 @@
       <c r="I520">
         <v>0</v>
       </c>
-      <c r="J520">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="521" spans="1:10">
+    </row>
+    <row r="521" spans="1:9">
       <c r="A521" t="s">
         <v>508</v>
       </c>
@@ -19129,11 +19602,8 @@
       <c r="I521">
         <v>0</v>
       </c>
-      <c r="J521">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="522" spans="1:10">
+    </row>
+    <row r="522" spans="1:9">
       <c r="A522" t="s">
         <v>508</v>
       </c>
@@ -19162,11 +19632,8 @@
       <c r="I522">
         <v>0</v>
       </c>
-      <c r="J522">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="523" spans="1:10">
+    </row>
+    <row r="523" spans="1:9">
       <c r="A523" t="s">
         <v>508</v>
       </c>
@@ -19195,11 +19662,8 @@
       <c r="I523">
         <v>0</v>
       </c>
-      <c r="J523">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="524" spans="1:10">
+    </row>
+    <row r="524" spans="1:9">
       <c r="A524" t="s">
         <v>508</v>
       </c>
@@ -19228,11 +19692,8 @@
       <c r="I524">
         <v>0</v>
       </c>
-      <c r="J524">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="525" spans="1:10">
+    </row>
+    <row r="525" spans="1:9">
       <c r="A525" t="s">
         <v>508</v>
       </c>
@@ -19261,11 +19722,8 @@
       <c r="I525">
         <v>0</v>
       </c>
-      <c r="J525">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="526" spans="1:10">
+    </row>
+    <row r="526" spans="1:9">
       <c r="A526" t="s">
         <v>508</v>
       </c>
@@ -19294,11 +19752,8 @@
       <c r="I526">
         <v>0</v>
       </c>
-      <c r="J526">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="527" spans="1:10">
+    </row>
+    <row r="527" spans="1:9">
       <c r="A527" t="s">
         <v>508</v>
       </c>
@@ -19327,11 +19782,8 @@
       <c r="I527">
         <v>0</v>
       </c>
-      <c r="J527">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="528" spans="1:10">
+    </row>
+    <row r="528" spans="1:9">
       <c r="A528" t="s">
         <v>508</v>
       </c>
@@ -19360,11 +19812,8 @@
       <c r="I528">
         <v>0</v>
       </c>
-      <c r="J528">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="529" spans="1:10">
+    </row>
+    <row r="529" spans="1:9">
       <c r="A529" t="s">
         <v>508</v>
       </c>
@@ -19393,11 +19842,8 @@
       <c r="I529">
         <v>0</v>
       </c>
-      <c r="J529">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="530" spans="1:10">
+    </row>
+    <row r="530" spans="1:9">
       <c r="A530" t="s">
         <v>508</v>
       </c>
@@ -19426,11 +19872,8 @@
       <c r="I530">
         <v>0</v>
       </c>
-      <c r="J530">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="531" spans="1:10">
+    </row>
+    <row r="531" spans="1:9">
       <c r="A531" t="s">
         <v>508</v>
       </c>
@@ -19459,11 +19902,8 @@
       <c r="I531">
         <v>0</v>
       </c>
-      <c r="J531">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="532" spans="1:10">
+    </row>
+    <row r="532" spans="1:9">
       <c r="A532" t="s">
         <v>508</v>
       </c>
@@ -19492,11 +19932,8 @@
       <c r="I532">
         <v>0</v>
       </c>
-      <c r="J532">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="533" spans="1:10">
+    </row>
+    <row r="533" spans="1:9">
       <c r="A533" t="s">
         <v>508</v>
       </c>
@@ -19525,11 +19962,8 @@
       <c r="I533">
         <v>0</v>
       </c>
-      <c r="J533">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="534" spans="1:10">
+    </row>
+    <row r="534" spans="1:9">
       <c r="A534" t="s">
         <v>508</v>
       </c>
@@ -19558,11 +19992,8 @@
       <c r="I534">
         <v>0</v>
       </c>
-      <c r="J534">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:10">
+    </row>
+    <row r="535" spans="1:9">
       <c r="A535" t="s">
         <v>508</v>
       </c>
@@ -19591,11 +20022,8 @@
       <c r="I535">
         <v>0</v>
       </c>
-      <c r="J535">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="536" spans="1:10">
+    </row>
+    <row r="536" spans="1:9">
       <c r="A536" t="s">
         <v>508</v>
       </c>
@@ -19624,11 +20052,8 @@
       <c r="I536">
         <v>0</v>
       </c>
-      <c r="J536">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="537" spans="1:10">
+    </row>
+    <row r="537" spans="1:9">
       <c r="A537" t="s">
         <v>508</v>
       </c>
@@ -19657,11 +20082,8 @@
       <c r="I537">
         <v>0</v>
       </c>
-      <c r="J537">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:10">
+    </row>
+    <row r="538" spans="1:9">
       <c r="A538" t="s">
         <v>508</v>
       </c>
@@ -19690,11 +20112,8 @@
       <c r="I538">
         <v>0</v>
       </c>
-      <c r="J538">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="539" spans="1:10">
+    </row>
+    <row r="539" spans="1:9">
       <c r="A539" t="s">
         <v>508</v>
       </c>
@@ -19723,11 +20142,8 @@
       <c r="I539">
         <v>0</v>
       </c>
-      <c r="J539">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="540" spans="1:10">
+    </row>
+    <row r="540" spans="1:9">
       <c r="A540" t="s">
         <v>508</v>
       </c>
@@ -19756,11 +20172,8 @@
       <c r="I540">
         <v>1</v>
       </c>
-      <c r="J540">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="541" spans="1:10">
+    </row>
+    <row r="541" spans="1:9">
       <c r="A541" t="s">
         <v>508</v>
       </c>
@@ -19789,11 +20202,8 @@
       <c r="I541">
         <v>0</v>
       </c>
-      <c r="J541">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="542" spans="1:10">
+    </row>
+    <row r="542" spans="1:9">
       <c r="A542" t="s">
         <v>508</v>
       </c>
@@ -19822,11 +20232,8 @@
       <c r="I542">
         <v>0</v>
       </c>
-      <c r="J542">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="543" spans="1:10">
+    </row>
+    <row r="543" spans="1:9">
       <c r="A543" t="s">
         <v>508</v>
       </c>
@@ -19855,11 +20262,8 @@
       <c r="I543">
         <v>0</v>
       </c>
-      <c r="J543">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="544" spans="1:10">
+    </row>
+    <row r="544" spans="1:9">
       <c r="A544" t="s">
         <v>508</v>
       </c>
@@ -19888,11 +20292,8 @@
       <c r="I544">
         <v>0</v>
       </c>
-      <c r="J544">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="545" spans="1:10">
+    </row>
+    <row r="545" spans="1:9">
       <c r="A545" t="s">
         <v>508</v>
       </c>
@@ -19921,9 +20322,6 @@
       <c r="I545">
         <v>0</v>
       </c>
-      <c r="J545">
-        <v>6</v>
-      </c>
     </row>
     <row r="546" spans="1:9">
       <c r="A546" t="s">
@@ -20882,6 +21280,3462 @@
         <v>0</v>
       </c>
       <c r="I577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" t="s">
+        <v>605</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D578" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E578" s="5">
+        <v>41.3</v>
+      </c>
+      <c r="F578" s="5">
+        <v>40.3</v>
+      </c>
+      <c r="G578" s="5">
+        <f t="shared" ref="G578:G641" si="9">E578-F578</f>
+        <v>1</v>
+      </c>
+      <c r="H578" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" t="s">
+        <v>605</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D579" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E579" s="5">
+        <v>40.7</v>
+      </c>
+      <c r="F579" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="G579" s="5">
+        <f t="shared" si="9"/>
+        <v>0.300000000000004</v>
+      </c>
+      <c r="H579" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" t="s">
+        <v>605</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D580" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E580" s="5">
+        <v>38</v>
+      </c>
+      <c r="F580" s="5">
+        <v>35.2</v>
+      </c>
+      <c r="G580" s="5">
+        <f t="shared" si="9"/>
+        <v>2.8</v>
+      </c>
+      <c r="H580" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" t="s">
+        <v>605</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D581" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E581" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="F581" s="5">
+        <v>36.3</v>
+      </c>
+      <c r="G581" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="H581" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" t="s">
+        <v>605</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D582" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E582" s="5">
+        <v>38.7</v>
+      </c>
+      <c r="F582" s="5">
+        <v>37</v>
+      </c>
+      <c r="G582" s="5">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="H582" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583" t="s">
+        <v>605</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D583" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E583" s="5">
+        <v>40.8</v>
+      </c>
+      <c r="F583" s="5">
+        <v>38.2</v>
+      </c>
+      <c r="G583" s="5">
+        <f t="shared" si="9"/>
+        <v>2.59999999999999</v>
+      </c>
+      <c r="H583" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" t="s">
+        <v>605</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D584" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E584" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="F584" s="5">
+        <v>39.3</v>
+      </c>
+      <c r="G584" s="5">
+        <f t="shared" si="9"/>
+        <v>0.800000000000004</v>
+      </c>
+      <c r="H584" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" t="s">
+        <v>605</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D585" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E585" s="5">
+        <v>38</v>
+      </c>
+      <c r="F585" s="5">
+        <v>36.3</v>
+      </c>
+      <c r="G585" s="5">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="H585" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" t="s">
+        <v>605</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D586" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E586" s="5">
+        <v>37</v>
+      </c>
+      <c r="F586" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="G586" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="H586" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" t="s">
+        <v>605</v>
+      </c>
+      <c r="B587" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D587" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E587" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="F587" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="G587" s="5">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="H587" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" t="s">
+        <v>605</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D588" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E588" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="F588" s="5">
+        <v>37</v>
+      </c>
+      <c r="G588" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="H588" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" t="s">
+        <v>605</v>
+      </c>
+      <c r="B589" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C589" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D589" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E589" s="5">
+        <v>44</v>
+      </c>
+      <c r="F589" s="5">
+        <v>42.4</v>
+      </c>
+      <c r="G589" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="H589" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" t="s">
+        <v>605</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D590" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E590" s="5">
+        <v>36.6</v>
+      </c>
+      <c r="F590" s="5">
+        <v>35.9</v>
+      </c>
+      <c r="G590" s="5">
+        <f t="shared" si="9"/>
+        <v>0.700000000000003</v>
+      </c>
+      <c r="H590" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" t="s">
+        <v>605</v>
+      </c>
+      <c r="B591" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C591" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D591" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E591" s="5">
+        <v>40.2</v>
+      </c>
+      <c r="F591" s="5">
+        <v>39.1</v>
+      </c>
+      <c r="G591" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1</v>
+      </c>
+      <c r="H591" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" t="s">
+        <v>605</v>
+      </c>
+      <c r="B592" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D592" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E592" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="F592" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="G592" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H592" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" t="s">
+        <v>605</v>
+      </c>
+      <c r="B593" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C593" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D593" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E593" s="5">
+        <v>40.3</v>
+      </c>
+      <c r="F593" s="5">
+        <v>37.8</v>
+      </c>
+      <c r="G593" s="5">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="H593" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" t="s">
+        <v>605</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D594" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E594" s="5">
+        <v>42.8</v>
+      </c>
+      <c r="F594" s="5">
+        <v>40.8</v>
+      </c>
+      <c r="G594" s="5">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H594" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" t="s">
+        <v>605</v>
+      </c>
+      <c r="B595" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C595" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D595" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E595" s="5">
+        <v>41.6</v>
+      </c>
+      <c r="F595" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="G595" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H595" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" t="s">
+        <v>605</v>
+      </c>
+      <c r="B596" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D596" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E596" s="5">
+        <v>43.2</v>
+      </c>
+      <c r="F596" s="5">
+        <v>41.4</v>
+      </c>
+      <c r="G596" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="H596" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" t="s">
+        <v>605</v>
+      </c>
+      <c r="B597" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C597" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D597" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E597" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="F597" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="G597" s="5">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H597" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598" t="s">
+        <v>605</v>
+      </c>
+      <c r="B598" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D598" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E598" s="5">
+        <v>41.1</v>
+      </c>
+      <c r="F598" s="5">
+        <v>40.7</v>
+      </c>
+      <c r="G598" s="5">
+        <f t="shared" si="9"/>
+        <v>0.399999999999999</v>
+      </c>
+      <c r="H598" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" t="s">
+        <v>605</v>
+      </c>
+      <c r="B599" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C599" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D599" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E599" s="5">
+        <v>38.5</v>
+      </c>
+      <c r="F599" s="5">
+        <v>36.9</v>
+      </c>
+      <c r="G599" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="H599" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" t="s">
+        <v>605</v>
+      </c>
+      <c r="B600" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D600" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E600" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="F600" s="5">
+        <v>39.4</v>
+      </c>
+      <c r="G600" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1</v>
+      </c>
+      <c r="H600" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" t="s">
+        <v>605</v>
+      </c>
+      <c r="B601" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C601" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D601" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E601" s="5">
+        <v>38.6</v>
+      </c>
+      <c r="F601" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="G601" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H601" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" t="s">
+        <v>605</v>
+      </c>
+      <c r="B602" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D602" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E602" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="F602" s="5">
+        <v>38.3</v>
+      </c>
+      <c r="G602" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="H602" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" t="s">
+        <v>605</v>
+      </c>
+      <c r="B603" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C603" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D603" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E603" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="F603" s="5">
+        <v>37.3</v>
+      </c>
+      <c r="G603" s="5">
+        <f t="shared" si="9"/>
+        <v>0.300000000000004</v>
+      </c>
+      <c r="H603" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" t="s">
+        <v>605</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C604" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D604" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E604" s="5">
+        <v>40</v>
+      </c>
+      <c r="F604" s="5">
+        <v>37.3</v>
+      </c>
+      <c r="G604" s="5">
+        <f t="shared" si="9"/>
+        <v>2.7</v>
+      </c>
+      <c r="H604" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" t="s">
+        <v>605</v>
+      </c>
+      <c r="B605" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C605" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D605" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E605" s="5">
+        <v>38</v>
+      </c>
+      <c r="F605" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="G605" s="5">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="H605" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+      <c r="B606" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D606" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E606" s="5">
+        <v>44.2</v>
+      </c>
+      <c r="F606" s="5">
+        <v>42.1</v>
+      </c>
+      <c r="G606" s="5">
+        <f t="shared" si="9"/>
+        <v>2.1</v>
+      </c>
+      <c r="H606" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" t="s">
+        <v>605</v>
+      </c>
+      <c r="B607" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C607" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D607" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E607" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="F607" s="5">
+        <v>35.8</v>
+      </c>
+      <c r="G607" s="5">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" t="s">
+        <v>605</v>
+      </c>
+      <c r="B608" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D608" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E608" s="5">
+        <v>38.2</v>
+      </c>
+      <c r="F608" s="5">
+        <v>38</v>
+      </c>
+      <c r="G608" s="5">
+        <f t="shared" si="9"/>
+        <v>0.200000000000003</v>
+      </c>
+      <c r="H608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" t="s">
+        <v>605</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C609" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D609" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E609" s="5">
+        <v>38.8</v>
+      </c>
+      <c r="F609" s="5">
+        <v>37</v>
+      </c>
+      <c r="G609" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="H609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" t="s">
+        <v>605</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D610" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E610" s="5">
+        <v>35.3</v>
+      </c>
+      <c r="F610" s="5">
+        <v>33.9</v>
+      </c>
+      <c r="G610" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="H610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" t="s">
+        <v>605</v>
+      </c>
+      <c r="B611" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C611" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D611" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E611" s="5">
+        <v>34.3</v>
+      </c>
+      <c r="F611" s="5">
+        <v>33</v>
+      </c>
+      <c r="G611" s="5">
+        <f t="shared" si="9"/>
+        <v>1.3</v>
+      </c>
+      <c r="H611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" t="s">
+        <v>605</v>
+      </c>
+      <c r="B612" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D612" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E612" s="5">
+        <v>36</v>
+      </c>
+      <c r="F612" s="5">
+        <v>35</v>
+      </c>
+      <c r="G612" s="5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" t="s">
+        <v>605</v>
+      </c>
+      <c r="B613" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C613" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D613" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E613" s="5">
+        <v>32.9</v>
+      </c>
+      <c r="F613" s="5">
+        <v>31.8</v>
+      </c>
+      <c r="G613" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1</v>
+      </c>
+      <c r="H613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" t="s">
+        <v>605</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D614" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E614" s="5">
+        <v>34.8</v>
+      </c>
+      <c r="F614" s="5">
+        <v>33.7</v>
+      </c>
+      <c r="G614" s="5">
+        <f t="shared" si="9"/>
+        <v>1.09999999999999</v>
+      </c>
+      <c r="H614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615" t="s">
+        <v>605</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C615" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D615" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E615" s="5">
+        <v>33.1</v>
+      </c>
+      <c r="F615" s="5">
+        <v>32.7</v>
+      </c>
+      <c r="G615" s="5">
+        <f t="shared" si="9"/>
+        <v>0.399999999999999</v>
+      </c>
+      <c r="H615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616" t="s">
+        <v>605</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D616" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E616" s="5">
+        <v>35</v>
+      </c>
+      <c r="F616" s="5">
+        <v>33.8</v>
+      </c>
+      <c r="G616" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="H616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" t="s">
+        <v>605</v>
+      </c>
+      <c r="B617" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C617" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D617" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E617" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="F617" s="5">
+        <v>37.7</v>
+      </c>
+      <c r="G617" s="5">
+        <f t="shared" si="9"/>
+        <v>2.9</v>
+      </c>
+      <c r="H617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618" t="s">
+        <v>605</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D618" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E618" s="5">
+        <v>37.9</v>
+      </c>
+      <c r="F618" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="G618" s="5">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="H618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619" t="s">
+        <v>605</v>
+      </c>
+      <c r="B619" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C619" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D619" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E619" s="5">
+        <v>40</v>
+      </c>
+      <c r="F619" s="5">
+        <v>37.4</v>
+      </c>
+      <c r="G619" s="5">
+        <f t="shared" si="9"/>
+        <v>2.6</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="A620" t="s">
+        <v>605</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E620" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="F620" s="5">
+        <v>42.6</v>
+      </c>
+      <c r="G620" s="5">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="H620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" t="s">
+        <v>605</v>
+      </c>
+      <c r="B621" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C621" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E621" s="5">
+        <v>35</v>
+      </c>
+      <c r="F621" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="G621" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="H621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" t="s">
+        <v>605</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E622" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="F622" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="G622" s="5">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623" t="s">
+        <v>605</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C623" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D623" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E623" s="5">
+        <v>34.9</v>
+      </c>
+      <c r="F623" s="5">
+        <v>33.7</v>
+      </c>
+      <c r="G623" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="H623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624" t="s">
+        <v>605</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D624" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E624" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="F624" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="G624" s="5">
+        <f t="shared" si="9"/>
+        <v>0.899999999999999</v>
+      </c>
+      <c r="H624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" t="s">
+        <v>605</v>
+      </c>
+      <c r="B625" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C625" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D625" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E625" s="5">
+        <v>33.7</v>
+      </c>
+      <c r="F625" s="5">
+        <v>32.2</v>
+      </c>
+      <c r="G625" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="H625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626" t="s">
+        <v>605</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D626" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E626" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="F626" s="5">
+        <v>32.7</v>
+      </c>
+      <c r="G626" s="5">
+        <f t="shared" si="9"/>
+        <v>0.899999999999999</v>
+      </c>
+      <c r="H626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="A627" t="s">
+        <v>605</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C627" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E627" s="5">
+        <v>37.7</v>
+      </c>
+      <c r="F627" s="5">
+        <v>36.5</v>
+      </c>
+      <c r="G627" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628" t="s">
+        <v>605</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D628" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E628" s="5">
+        <v>35.7</v>
+      </c>
+      <c r="F628" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="G628" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="H628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="A629" t="s">
+        <v>605</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C629" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D629" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E629" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="F629" s="5">
+        <v>36</v>
+      </c>
+      <c r="G629" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1</v>
+      </c>
+      <c r="H629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="A630" t="s">
+        <v>605</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D630" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E630" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="F630" s="5">
+        <v>36.9</v>
+      </c>
+      <c r="G630" s="5">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="H630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="A631" t="s">
+        <v>605</v>
+      </c>
+      <c r="B631" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C631" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D631" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E631" s="5">
+        <v>38.7</v>
+      </c>
+      <c r="F631" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="G631" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="H631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632" t="s">
+        <v>605</v>
+      </c>
+      <c r="B632" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D632" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E632" s="5">
+        <v>36.4</v>
+      </c>
+      <c r="F632" s="5">
+        <v>34.5</v>
+      </c>
+      <c r="G632" s="5">
+        <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="H632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" t="s">
+        <v>605</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C633" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D633" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E633" s="5">
+        <v>37.6</v>
+      </c>
+      <c r="F633" s="5">
+        <v>35.8</v>
+      </c>
+      <c r="G633" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8</v>
+      </c>
+      <c r="H633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="A634" t="s">
+        <v>605</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D634" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E634" s="5">
+        <v>36.7</v>
+      </c>
+      <c r="F634" s="5">
+        <v>35.2</v>
+      </c>
+      <c r="G634" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="H634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="A635" t="s">
+        <v>605</v>
+      </c>
+      <c r="B635" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C635" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D635" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E635" s="5">
+        <v>35</v>
+      </c>
+      <c r="F635" s="5">
+        <v>33.5</v>
+      </c>
+      <c r="G635" s="5">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="H635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" t="s">
+        <v>605</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D636" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E636" s="5">
+        <v>35.4</v>
+      </c>
+      <c r="F636" s="5">
+        <v>33.8</v>
+      </c>
+      <c r="G636" s="5">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="H636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="A637" t="s">
+        <v>605</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C637" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D637" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E637" s="5">
+        <v>37.2</v>
+      </c>
+      <c r="F637" s="5">
+        <v>36</v>
+      </c>
+      <c r="G637" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="H637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="A638" t="s">
+        <v>605</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C638" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D638" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E638" s="5">
+        <v>35.2</v>
+      </c>
+      <c r="F638" s="5">
+        <v>33.3</v>
+      </c>
+      <c r="G638" s="5">
+        <f t="shared" si="9"/>
+        <v>1.90000000000001</v>
+      </c>
+      <c r="H638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" t="s">
+        <v>605</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C639" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D639" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E639" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="F639" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="G639" s="5">
+        <f t="shared" si="9"/>
+        <v>3.1</v>
+      </c>
+      <c r="H639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" t="s">
+        <v>605</v>
+      </c>
+      <c r="B640" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D640" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E640" s="5">
+        <v>37.9</v>
+      </c>
+      <c r="F640" s="5">
+        <v>37</v>
+      </c>
+      <c r="G640" s="5">
+        <f t="shared" si="9"/>
+        <v>0.899999999999999</v>
+      </c>
+      <c r="H640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="A641" t="s">
+        <v>605</v>
+      </c>
+      <c r="B641" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C641" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D641" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E641" s="5">
+        <v>37.4</v>
+      </c>
+      <c r="F641" s="5">
+        <v>34.9</v>
+      </c>
+      <c r="G641" s="5">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="H641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="A642" t="s">
+        <v>670</v>
+      </c>
+      <c r="B642" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D642" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E642" s="5">
+        <v>52.6</v>
+      </c>
+      <c r="F642" s="5">
+        <v>51.4</v>
+      </c>
+      <c r="G642" s="5">
+        <f t="shared" ref="G642:G705" si="10">E642-F642</f>
+        <v>1.2</v>
+      </c>
+      <c r="H642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="A643" t="s">
+        <v>670</v>
+      </c>
+      <c r="B643" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C643" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E643" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="F643" s="5">
+        <v>50</v>
+      </c>
+      <c r="G643" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="H643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="A644" t="s">
+        <v>670</v>
+      </c>
+      <c r="B644" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E644" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="F644" s="5">
+        <v>48.3</v>
+      </c>
+      <c r="G644" s="5">
+        <f t="shared" si="10"/>
+        <v>2.1</v>
+      </c>
+      <c r="H644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645" t="s">
+        <v>670</v>
+      </c>
+      <c r="B645" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C645" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D645" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E645" s="5">
+        <v>51.9</v>
+      </c>
+      <c r="F645" s="5">
+        <v>50.2</v>
+      </c>
+      <c r="G645" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="H645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
+      <c r="A646" t="s">
+        <v>670</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E646" s="5">
+        <v>48</v>
+      </c>
+      <c r="F646" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="G646" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
+      <c r="A647" t="s">
+        <v>670</v>
+      </c>
+      <c r="B647" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C647" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D647" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E647" s="5">
+        <v>50.1</v>
+      </c>
+      <c r="F647" s="5">
+        <v>47.3</v>
+      </c>
+      <c r="G647" s="5">
+        <f t="shared" si="10"/>
+        <v>2.8</v>
+      </c>
+      <c r="H647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
+      <c r="A648" t="s">
+        <v>670</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D648" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E648" s="5">
+        <v>47.4</v>
+      </c>
+      <c r="F648" s="5">
+        <v>46</v>
+      </c>
+      <c r="G648" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="H648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
+      <c r="A649" t="s">
+        <v>670</v>
+      </c>
+      <c r="B649" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C649" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E649" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="F649" s="5">
+        <v>43.9</v>
+      </c>
+      <c r="G649" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="H649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
+      <c r="A650" t="s">
+        <v>670</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E650" s="5">
+        <v>50.2</v>
+      </c>
+      <c r="F650" s="5">
+        <v>47</v>
+      </c>
+      <c r="G650" s="5">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="H650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
+      <c r="A651" t="s">
+        <v>670</v>
+      </c>
+      <c r="B651" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="C651" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D651" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E651" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="F651" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="G651" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="A652" t="s">
+        <v>670</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D652" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E652" s="5">
+        <v>52.8</v>
+      </c>
+      <c r="F652" s="5">
+        <v>50.1</v>
+      </c>
+      <c r="G652" s="5">
+        <f t="shared" si="10"/>
+        <v>2.7</v>
+      </c>
+      <c r="H652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="A653" t="s">
+        <v>670</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C653" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D653" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E653" s="5">
+        <v>45.5</v>
+      </c>
+      <c r="F653" s="5">
+        <v>43.5</v>
+      </c>
+      <c r="G653" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654" t="s">
+        <v>670</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D654" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E654" s="5">
+        <v>50.9</v>
+      </c>
+      <c r="F654" s="5">
+        <v>48.5</v>
+      </c>
+      <c r="G654" s="5">
+        <f t="shared" si="10"/>
+        <v>2.4</v>
+      </c>
+      <c r="H654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="A655" t="s">
+        <v>670</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C655" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D655" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E655" s="5">
+        <v>53.1</v>
+      </c>
+      <c r="F655" s="5">
+        <v>52.3</v>
+      </c>
+      <c r="G655" s="5">
+        <f t="shared" si="10"/>
+        <v>0.800000000000004</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="A656" t="s">
+        <v>670</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D656" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E656" s="5">
+        <v>47</v>
+      </c>
+      <c r="F656" s="5">
+        <v>45.7</v>
+      </c>
+      <c r="G656" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="H656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" t="s">
+        <v>670</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C657" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D657" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E657" s="5">
+        <v>45.8</v>
+      </c>
+      <c r="F657" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="G657" s="5">
+        <f t="shared" si="10"/>
+        <v>0.699999999999996</v>
+      </c>
+      <c r="H657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="A658" t="s">
+        <v>670</v>
+      </c>
+      <c r="B658" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C658" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D658" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E658" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="F658" s="5">
+        <v>43.6</v>
+      </c>
+      <c r="G658" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="H658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
+      <c r="A659" t="s">
+        <v>670</v>
+      </c>
+      <c r="B659" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C659" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E659" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="F659" s="5">
+        <v>46</v>
+      </c>
+      <c r="G659" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="H659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
+      <c r="A660" t="s">
+        <v>670</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D660" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E660" s="5">
+        <v>47</v>
+      </c>
+      <c r="F660" s="5">
+        <v>46</v>
+      </c>
+      <c r="G660" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="A661" t="s">
+        <v>670</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C661" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D661" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E661" s="5">
+        <v>45</v>
+      </c>
+      <c r="F661" s="5">
+        <v>43.5</v>
+      </c>
+      <c r="G661" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="A662" t="s">
+        <v>670</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D662" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E662" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="F662" s="5">
+        <v>44.5</v>
+      </c>
+      <c r="G662" s="5">
+        <f t="shared" si="10"/>
+        <v>0.600000000000001</v>
+      </c>
+      <c r="H662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="A663" t="s">
+        <v>670</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C663" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D663" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E663" s="5">
+        <v>48.3</v>
+      </c>
+      <c r="F663" s="5">
+        <v>46.6</v>
+      </c>
+      <c r="G663" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="H663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="A664" t="s">
+        <v>670</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D664" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E664" s="5">
+        <v>53.1</v>
+      </c>
+      <c r="F664" s="5">
+        <v>51.3</v>
+      </c>
+      <c r="G664" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665" t="s">
+        <v>670</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C665" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D665" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E665" s="5">
+        <v>45.8</v>
+      </c>
+      <c r="F665" s="5">
+        <v>44.1</v>
+      </c>
+      <c r="G665" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="H665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="A666" t="s">
+        <v>670</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D666" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E666" s="5">
+        <v>51.6</v>
+      </c>
+      <c r="F666" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="G666" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+      <c r="H666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
+      <c r="A667" t="s">
+        <v>670</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C667" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D667" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E667" s="5">
+        <v>45</v>
+      </c>
+      <c r="F667" s="5">
+        <v>44</v>
+      </c>
+      <c r="G667" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668" t="s">
+        <v>670</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D668" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E668" s="5">
+        <v>45</v>
+      </c>
+      <c r="F668" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="G668" s="5">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="H668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="A669" t="s">
+        <v>670</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D669" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E669" s="5">
+        <v>41.7</v>
+      </c>
+      <c r="F669" s="5">
+        <v>41</v>
+      </c>
+      <c r="G669" s="5">
+        <f t="shared" si="10"/>
+        <v>0.700000000000003</v>
+      </c>
+      <c r="H669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
+      <c r="A670" t="s">
+        <v>670</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D670" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E670" s="5">
+        <v>48.4</v>
+      </c>
+      <c r="F670" s="5">
+        <v>47</v>
+      </c>
+      <c r="G670" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="H670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="A671" t="s">
+        <v>670</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C671" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D671" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E671" s="5">
+        <v>43</v>
+      </c>
+      <c r="F671" s="5">
+        <v>42.8</v>
+      </c>
+      <c r="G671" s="5">
+        <f t="shared" si="10"/>
+        <v>0.200000000000003</v>
+      </c>
+      <c r="H671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
+      <c r="A672" t="s">
+        <v>670</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D672" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E672" s="5">
+        <v>47.2</v>
+      </c>
+      <c r="F672" s="5">
+        <v>44.7</v>
+      </c>
+      <c r="G672" s="5">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8">
+      <c r="A673" t="s">
+        <v>670</v>
+      </c>
+      <c r="B673" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C673" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D673" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E673" s="5">
+        <v>43.2</v>
+      </c>
+      <c r="F673" s="5">
+        <v>42.7</v>
+      </c>
+      <c r="G673" s="5">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8">
+      <c r="A674" t="s">
+        <v>670</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D674" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E674" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="F674" s="5">
+        <v>40.2</v>
+      </c>
+      <c r="G674" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="H674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8">
+      <c r="A675" t="s">
+        <v>670</v>
+      </c>
+      <c r="B675" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E675" s="5">
+        <v>44.8</v>
+      </c>
+      <c r="F675" s="5">
+        <v>44.3</v>
+      </c>
+      <c r="G675" s="5">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8">
+      <c r="A676" t="s">
+        <v>670</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D676" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E676" s="5">
+        <v>47.1</v>
+      </c>
+      <c r="F676" s="5">
+        <v>45.8</v>
+      </c>
+      <c r="G676" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="H676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8">
+      <c r="A677" t="s">
+        <v>670</v>
+      </c>
+      <c r="B677" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C677" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D677" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E677" s="5">
+        <v>45.7</v>
+      </c>
+      <c r="F677" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="G677" s="5">
+        <f t="shared" si="10"/>
+        <v>0.600000000000001</v>
+      </c>
+      <c r="H677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="A678" t="s">
+        <v>670</v>
+      </c>
+      <c r="B678" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D678" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E678" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="F678" s="5">
+        <v>38.7</v>
+      </c>
+      <c r="G678" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="H678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="A679" t="s">
+        <v>670</v>
+      </c>
+      <c r="B679" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C679" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D679" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E679" s="5">
+        <v>45.5</v>
+      </c>
+      <c r="F679" s="5">
+        <v>45</v>
+      </c>
+      <c r="G679" s="5">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8">
+      <c r="A680" t="s">
+        <v>670</v>
+      </c>
+      <c r="B680" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C680" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D680" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E680" s="5">
+        <v>44.6</v>
+      </c>
+      <c r="F680" s="5">
+        <v>43.7</v>
+      </c>
+      <c r="G680" s="5">
+        <f t="shared" si="10"/>
+        <v>0.899999999999999</v>
+      </c>
+      <c r="H680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681" t="s">
+        <v>670</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C681" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D681" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E681" s="5">
+        <v>44.3</v>
+      </c>
+      <c r="F681" s="5">
+        <v>42.9</v>
+      </c>
+      <c r="G681" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="A682" t="s">
+        <v>670</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D682" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E682" s="5">
+        <v>45</v>
+      </c>
+      <c r="F682" s="5">
+        <v>44.2</v>
+      </c>
+      <c r="G682" s="5">
+        <f t="shared" si="10"/>
+        <v>0.799999999999997</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683" t="s">
+        <v>670</v>
+      </c>
+      <c r="B683" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C683" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D683" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E683" s="5">
+        <v>47.4</v>
+      </c>
+      <c r="F683" s="5">
+        <v>46.5</v>
+      </c>
+      <c r="G683" s="5">
+        <f t="shared" si="10"/>
+        <v>0.899999999999999</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" t="s">
+        <v>670</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D684" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E684" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="F684" s="5">
+        <v>44.6</v>
+      </c>
+      <c r="G684" s="5">
+        <f t="shared" si="10"/>
+        <v>1.7</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="A685" t="s">
+        <v>670</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C685" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D685" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E685" s="5">
+        <v>44.3</v>
+      </c>
+      <c r="F685" s="5">
+        <v>43.6</v>
+      </c>
+      <c r="G685" s="5">
+        <f t="shared" si="10"/>
+        <v>0.699999999999996</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
+      <c r="A686" t="s">
+        <v>670</v>
+      </c>
+      <c r="B686" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D686" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E686" s="5">
+        <v>44</v>
+      </c>
+      <c r="F686" s="5">
+        <v>42</v>
+      </c>
+      <c r="G686" s="5">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
+      <c r="A687" t="s">
+        <v>670</v>
+      </c>
+      <c r="B687" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D687" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E687" s="5">
+        <v>40.9</v>
+      </c>
+      <c r="F687" s="5">
+        <v>40.2</v>
+      </c>
+      <c r="G687" s="5">
+        <f t="shared" si="10"/>
+        <v>0.699999999999996</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="A688" t="s">
+        <v>670</v>
+      </c>
+      <c r="B688" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D688" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E688" s="5">
+        <v>48</v>
+      </c>
+      <c r="F688" s="5">
+        <v>45.9</v>
+      </c>
+      <c r="G688" s="5">
+        <f t="shared" si="10"/>
+        <v>2.1</v>
+      </c>
+      <c r="H688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8">
+      <c r="A689" t="s">
+        <v>670</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D689" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E689" s="5">
+        <v>42.3</v>
+      </c>
+      <c r="F689" s="5">
+        <v>41.3</v>
+      </c>
+      <c r="G689" s="5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8">
+      <c r="A690" t="s">
+        <v>670</v>
+      </c>
+      <c r="B690" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D690" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E690" s="5">
+        <v>46.7</v>
+      </c>
+      <c r="F690" s="5">
+        <v>45.1</v>
+      </c>
+      <c r="G690" s="5">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="H690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8">
+      <c r="A691" t="s">
+        <v>670</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C691" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D691" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E691" s="5">
+        <v>43.4</v>
+      </c>
+      <c r="F691" s="5">
+        <v>42.6</v>
+      </c>
+      <c r="G691" s="5">
+        <f t="shared" si="10"/>
+        <v>0.799999999999997</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8">
+      <c r="A692" t="s">
+        <v>670</v>
+      </c>
+      <c r="B692" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D692" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E692" s="5">
+        <v>47</v>
+      </c>
+      <c r="F692" s="5">
+        <v>45.4</v>
+      </c>
+      <c r="G692" s="5">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8">
+      <c r="A693" t="s">
+        <v>670</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D693" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E693" s="5">
+        <v>46.5</v>
+      </c>
+      <c r="F693" s="5">
+        <v>46</v>
+      </c>
+      <c r="G693" s="5">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8">
+      <c r="A694" t="s">
+        <v>670</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D694" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E694" s="5">
+        <v>44.5</v>
+      </c>
+      <c r="F694" s="5">
+        <v>43.8</v>
+      </c>
+      <c r="G694" s="5">
+        <f t="shared" si="10"/>
+        <v>0.700000000000003</v>
+      </c>
+      <c r="H694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8">
+      <c r="A695" t="s">
+        <v>670</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C695" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D695" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E695" s="5">
+        <v>41.7</v>
+      </c>
+      <c r="F695" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="G695" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1</v>
+      </c>
+      <c r="H695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8">
+      <c r="A696" t="s">
+        <v>670</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D696" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E696" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="F696" s="5">
+        <v>40.8</v>
+      </c>
+      <c r="G696" s="5">
+        <f t="shared" si="10"/>
+        <v>0.700000000000003</v>
+      </c>
+      <c r="H696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8">
+      <c r="A697" t="s">
+        <v>670</v>
+      </c>
+      <c r="B697" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="C697" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D697" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E697" s="5">
+        <v>40.8</v>
+      </c>
+      <c r="F697" s="5">
+        <v>40</v>
+      </c>
+      <c r="G697" s="5">
+        <f t="shared" si="10"/>
+        <v>0.799999999999997</v>
+      </c>
+      <c r="H697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8">
+      <c r="A698" t="s">
+        <v>670</v>
+      </c>
+      <c r="B698" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D698" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E698" s="5">
+        <v>40.8</v>
+      </c>
+      <c r="F698" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="G698" s="5">
+        <f t="shared" si="10"/>
+        <v>0.699999999999996</v>
+      </c>
+      <c r="H698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8">
+      <c r="A699" t="s">
+        <v>670</v>
+      </c>
+      <c r="B699" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C699" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D699" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E699" s="5">
+        <v>40.4</v>
+      </c>
+      <c r="F699" s="5">
+        <v>38.6</v>
+      </c>
+      <c r="G699" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="H699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8">
+      <c r="A700" t="s">
+        <v>670</v>
+      </c>
+      <c r="B700" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D700" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E700" s="5">
+        <v>38.2</v>
+      </c>
+      <c r="F700" s="5">
+        <v>36.7</v>
+      </c>
+      <c r="G700" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="H700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8">
+      <c r="A701" t="s">
+        <v>670</v>
+      </c>
+      <c r="B701" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C701" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D701" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E701" s="5">
+        <v>50.8</v>
+      </c>
+      <c r="F701" s="5">
+        <v>50.2</v>
+      </c>
+      <c r="G701" s="5">
+        <f t="shared" si="10"/>
+        <v>0.599999999999994</v>
+      </c>
+      <c r="H701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8">
+      <c r="A702" t="s">
+        <v>670</v>
+      </c>
+      <c r="B702" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D702" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E702" s="5">
+        <v>41.5</v>
+      </c>
+      <c r="F702" s="5">
+        <v>40.7</v>
+      </c>
+      <c r="G702" s="5">
+        <f t="shared" si="10"/>
+        <v>0.799999999999997</v>
+      </c>
+      <c r="H702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8">
+      <c r="A703" t="s">
+        <v>670</v>
+      </c>
+      <c r="B703" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C703" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D703" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E703" s="5">
+        <v>45.9</v>
+      </c>
+      <c r="F703" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="G703" s="5">
+        <f t="shared" si="10"/>
+        <v>0.600000000000001</v>
+      </c>
+      <c r="H703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8">
+      <c r="A704" t="s">
+        <v>670</v>
+      </c>
+      <c r="B704" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D704" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E704" s="5">
+        <v>45.3</v>
+      </c>
+      <c r="F704" s="5">
+        <v>44.7</v>
+      </c>
+      <c r="G704" s="5">
+        <f t="shared" si="10"/>
+        <v>0.599999999999994</v>
+      </c>
+      <c r="H704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8">
+      <c r="A705" t="s">
+        <v>670</v>
+      </c>
+      <c r="B705" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="C705" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D705" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E705" s="5">
+        <v>44.3</v>
+      </c>
+      <c r="F705" s="5">
+        <v>43.1</v>
+      </c>
+      <c r="G705" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2</v>
+      </c>
+      <c r="H705">
         <v>0</v>
       </c>
     </row>

--- a/Mussel_Cancer/Rcalc_for_cancer/Data/mussel_individual.xlsx
+++ b/Mussel_Cancer/Rcalc_for_cancer/Data/mussel_individual.xlsx
@@ -1834,7 +1834,7 @@
     <t>нюк3-32</t>
   </si>
   <si>
-    <t>mchk</t>
+    <t>Mar_II</t>
   </si>
   <si>
     <t>MChk1</t>
@@ -2230,9 +2230,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2266,7 +2266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2275,7 +2274,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2283,7 +2296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2297,49 +2310,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2358,16 +2333,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2382,6 +2358,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2389,8 +2373,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2419,13 +2419,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2437,13 +2527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2455,73 +2545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,24 +2575,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2569,37 +2587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,6 +2610,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2624,16 +2639,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2654,36 +2669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2696,8 +2681,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2705,8 +2705,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2715,16 +2715,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2733,130 +2736,127 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3189,8 +3189,8 @@
   <sheetPr/>
   <dimension ref="A1:J705"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="B9" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
